--- a/app01/static/files/批次表上传模板.xlsx
+++ b/app01/static/files/批次表上传模板.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15280"/>
+    <workbookView windowHeight="15200"/>
   </bookViews>
   <sheets>
     <sheet name="2024年" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024年'!$A$1:$AA$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024年'!$A$1:$AB$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -80,6 +80,9 @@
     <t>用籽量</t>
   </si>
   <si>
+    <t>基地</t>
+  </si>
+  <si>
     <t>基地经理</t>
   </si>
   <si>
@@ -131,7 +134,7 @@
     <t>周期</t>
   </si>
   <si>
-    <t>XQC-240401-黄白</t>
+    <t>GHA-240101-冬黄白</t>
   </si>
   <si>
     <t>黄白</t>
@@ -140,34 +143,29 @@
     <t>冬黄白</t>
   </si>
   <si>
-    <t>C14-C28</t>
-  </si>
-  <si>
-    <t>刘建琴</t>
-  </si>
-  <si>
-    <t>机器点籽</t>
-  </si>
-  <si>
-    <t>240401-240525</t>
-  </si>
-  <si>
-    <t>点籽</t>
+    <t>C19-C20</t>
+  </si>
+  <si>
+    <t>干海子A</t>
+  </si>
+  <si>
+    <t>张静</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -203,6 +201,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -215,11 +218,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -577,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -589,32 +587,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -763,7 +735,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,34 +747,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,7 +859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,61 +870,57 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,21 +928,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1296,15 +1264,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
     <col min="3" max="3" width="13.6153846153846" customWidth="1"/>
     <col min="4" max="4" width="25.25" customWidth="1"/>
@@ -1314,21 +1282,22 @@
     <col min="8" max="8" width="11.25" customWidth="1"/>
     <col min="9" max="9" width="16.9230769230769" customWidth="1"/>
     <col min="10" max="10" width="8.75" customWidth="1"/>
-    <col min="11" max="11" width="9.21153846153846" customWidth="1"/>
-    <col min="12" max="12" width="53.7019230769231" customWidth="1"/>
-    <col min="13" max="13" width="9.90384615384615"/>
-    <col min="14" max="15" width="10.1923076923077" customWidth="1"/>
-    <col min="16" max="16" width="9.90384615384615"/>
-    <col min="17" max="17" width="14.9230769230769" customWidth="1"/>
-    <col min="18" max="18" width="9.90384615384615"/>
-    <col min="19" max="19" width="10.1923076923077" customWidth="1"/>
-    <col min="20" max="20" width="22.5" customWidth="1"/>
-    <col min="21" max="25" width="9.90384615384615"/>
-    <col min="26" max="26" width="28.8461538461538" customWidth="1"/>
-    <col min="27" max="27" width="9.90384615384615"/>
+    <col min="11" max="11" width="17.7884615384615" customWidth="1"/>
+    <col min="12" max="12" width="9.21153846153846" customWidth="1"/>
+    <col min="13" max="13" width="53.7019230769231" customWidth="1"/>
+    <col min="14" max="14" width="9.90384615384615"/>
+    <col min="15" max="16" width="10.1923076923077" customWidth="1"/>
+    <col min="17" max="17" width="9.90384615384615"/>
+    <col min="18" max="18" width="14.9230769230769" customWidth="1"/>
+    <col min="19" max="19" width="9.90384615384615"/>
+    <col min="20" max="20" width="10.1923076923077" customWidth="1"/>
+    <col min="21" max="21" width="22.5" customWidth="1"/>
+    <col min="22" max="26" width="9.90384615384615"/>
+    <col min="27" max="27" width="28.8461538461538" customWidth="1"/>
+    <col min="28" max="28" width="9.90384615384615"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:27">
+    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:28">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1338,159 +1307,132 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AA1" s="22" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:27">
-      <c r="A2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:28">
+      <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="11">
-        <v>5.89</v>
-      </c>
-      <c r="F2" s="9">
-        <v>45383</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10">
-        <v>0.576</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="E2" s="7">
+        <v>1.88</v>
+      </c>
+      <c r="F2" s="10">
+        <v>45292</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="13">
-        <v>46</v>
-      </c>
-      <c r="N2" s="16">
-        <v>45431</v>
-      </c>
-      <c r="O2" s="16">
-        <v>45434</v>
-      </c>
-      <c r="P2" s="13">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="19" t="s">
+      <c r="L2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="19">
-        <v>46</v>
-      </c>
-      <c r="S2" s="20">
-        <v>0</v>
-      </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="20">
-        <v>35800</v>
-      </c>
-      <c r="V2" s="20">
-        <v>6078</v>
-      </c>
-      <c r="W2" s="20">
-        <v>35800</v>
-      </c>
-      <c r="X2" s="20">
-        <v>6078</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="25">
-        <v>45437</v>
-      </c>
-      <c r="AA2" s="24">
-        <v>54</v>
-      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="23"/>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AB2" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <conditionalFormatting sqref="A$1:A$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
